--- a/data/dai_viet_su_ki/dvsk_golden_translation_summary.xlsx
+++ b/data/dai_viet_su_ki/dvsk_golden_translation_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\HCMUS\Thesis\bertalign_approach\data\dai_viet_su_ki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514D1A3D-FF93-4B76-A566-917455E89ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43ACA33-DAFF-4E55-A8F2-844A13E9F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="2046">
   <si>
     <t>phi4-trans</t>
   </si>
@@ -6157,6 +6157,12 @@
   </si>
   <si>
     <t>lấy trịnh công ngô làm thượng thư bộ hộ.</t>
+  </si>
+  <si>
+    <t>phi4-lev</t>
+  </si>
+  <si>
+    <t>deepseek-lev</t>
   </si>
 </sst>
 </file>
@@ -6491,10 +6497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6506,9 +6512,11 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6530,8 +6538,14 @@
       <c r="G1" s="1" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6553,8 +6567,14 @@
       <c r="G2" s="3">
         <v>0.64490676000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6576,8 +6596,14 @@
       <c r="G3" s="3">
         <v>0.44400086999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6599,8 +6625,14 @@
       <c r="G4" s="3">
         <v>0.46801490000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6622,8 +6654,14 @@
       <c r="G5" s="3">
         <v>0.58900463999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -6645,8 +6683,14 @@
       <c r="G6" s="3">
         <v>0.43852824000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6668,8 +6712,14 @@
       <c r="G7" s="3">
         <v>0.60545139999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -6691,8 +6741,14 @@
       <c r="G8" s="3">
         <v>0.55570889999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6714,8 +6770,14 @@
       <c r="G9" s="3">
         <v>0.35809111999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>105</v>
+      </c>
+      <c r="I9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -6737,8 +6799,14 @@
       <c r="G10" s="3">
         <v>0.34417249999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>184</v>
+      </c>
+      <c r="I10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -6760,8 +6828,14 @@
       <c r="G11" s="3">
         <v>0.48481007999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>59</v>
+      </c>
+      <c r="I11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6783,8 +6857,14 @@
       <c r="G12" s="3">
         <v>0.74411720000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -6806,8 +6886,14 @@
       <c r="G13" s="3">
         <v>0.58927030000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -6829,8 +6915,14 @@
       <c r="G14" s="3">
         <v>0.66014874000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>113</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6852,8 +6944,14 @@
       <c r="G15" s="3">
         <v>0.64784819999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -6875,8 +6973,14 @@
       <c r="G16" s="3">
         <v>0.51129639999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -6898,8 +7002,14 @@
       <c r="G17" s="3">
         <v>0.41495672</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -6921,8 +7031,14 @@
       <c r="G18" s="3">
         <v>0.52896940000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6944,8 +7060,14 @@
       <c r="G19" s="3">
         <v>0.42954618</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>68</v>
+      </c>
+      <c r="I19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -6967,8 +7089,14 @@
       <c r="G20" s="3">
         <v>0.36569926000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>61</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -6990,8 +7118,14 @@
       <c r="G21" s="3">
         <v>0.45500439999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>90</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -7013,8 +7147,14 @@
       <c r="G22" s="3">
         <v>0.67064095000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>23</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -7036,8 +7176,14 @@
       <c r="G23" s="3">
         <v>0.65922840000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -7059,8 +7205,14 @@
       <c r="G24" s="3">
         <v>0.57881289999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>56</v>
+      </c>
+      <c r="I24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -7082,8 +7234,14 @@
       <c r="G25" s="3">
         <v>0.53835299999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>36</v>
+      </c>
+      <c r="I25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -7105,8 +7263,14 @@
       <c r="G26" s="3">
         <v>0.69899637000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>59</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -7128,8 +7292,14 @@
       <c r="G27" s="3">
         <v>0.69462109999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>136</v>
+      </c>
+      <c r="I27">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -7151,8 +7321,14 @@
       <c r="G28" s="3">
         <v>0.36130968000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -7174,8 +7350,14 @@
       <c r="G29" s="3">
         <v>0.56916029999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -7197,8 +7379,14 @@
       <c r="G30" s="3">
         <v>0.36402327000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>66</v>
+      </c>
+      <c r="I30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -7220,8 +7408,14 @@
       <c r="G31" s="3">
         <v>0.46693283000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -7243,8 +7437,14 @@
       <c r="G32" s="3">
         <v>0.55254499999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -7266,8 +7466,14 @@
       <c r="G33" s="3">
         <v>0.39427292000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>35</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -7289,8 +7495,14 @@
       <c r="G34" s="3">
         <v>0.72544472999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>53</v>
+      </c>
+      <c r="I34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -7312,8 +7524,14 @@
       <c r="G35" s="3">
         <v>0.58853065999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -7335,8 +7553,14 @@
       <c r="G36" s="3">
         <v>0.61365559999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>75</v>
+      </c>
+      <c r="I36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -7358,8 +7582,14 @@
       <c r="G37" s="3">
         <v>0.50763994000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>53</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -7381,8 +7611,14 @@
       <c r="G38" s="3">
         <v>0.65045076999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -7404,8 +7640,14 @@
       <c r="G39" s="3">
         <v>0.45157623000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>58</v>
+      </c>
+      <c r="I39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -7427,8 +7669,14 @@
       <c r="G40" s="3">
         <v>0.53175216999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>28</v>
+      </c>
+      <c r="I40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -7450,8 +7698,14 @@
       <c r="G41" s="3">
         <v>0.63781655000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>65</v>
+      </c>
+      <c r="I41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -7473,8 +7727,14 @@
       <c r="G42" s="3">
         <v>0.47036135000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -7496,8 +7756,14 @@
       <c r="G43" s="3">
         <v>0.52327347000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -7519,8 +7785,14 @@
       <c r="G44" s="3">
         <v>0.60431199999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>32</v>
+      </c>
+      <c r="I44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -7542,8 +7814,14 @@
       <c r="G45" s="3">
         <v>0.3983198</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>128</v>
+      </c>
+      <c r="I45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -7565,8 +7843,14 @@
       <c r="G46" s="3">
         <v>0.68943613999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>24</v>
+      </c>
+      <c r="I46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -7588,8 +7872,14 @@
       <c r="G47" s="3">
         <v>0.39145753</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>209</v>
+      </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -7611,8 +7901,14 @@
       <c r="G48" s="3">
         <v>0.48204311999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>73</v>
+      </c>
+      <c r="I48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -7634,8 +7930,14 @@
       <c r="G49" s="3">
         <v>0.66940310000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -7657,8 +7959,14 @@
       <c r="G50" s="3">
         <v>0.64670810000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>54</v>
+      </c>
+      <c r="I50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -7680,8 +7988,14 @@
       <c r="G51" s="3">
         <v>0.76915359999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>24</v>
+      </c>
+      <c r="I51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -7703,8 +8017,14 @@
       <c r="G52" s="3">
         <v>0.58766209999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>94</v>
+      </c>
+      <c r="I52">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -7726,8 +8046,14 @@
       <c r="G53" s="3">
         <v>0.59885469999999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>21</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -7749,8 +8075,14 @@
       <c r="G54" s="3">
         <v>0.48170337000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>51</v>
+      </c>
+      <c r="I54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -7772,8 +8104,14 @@
       <c r="G55" s="3">
         <v>0.42292610000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>118</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -7795,8 +8133,14 @@
       <c r="G56" s="3">
         <v>0.49368849999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>31</v>
+      </c>
+      <c r="I56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -7818,8 +8162,14 @@
       <c r="G57" s="3">
         <v>0.64730659999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>40</v>
+      </c>
+      <c r="I57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -7841,8 +8191,14 @@
       <c r="G58" s="3">
         <v>0.45430872</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>33</v>
+      </c>
+      <c r="I58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -7864,8 +8220,14 @@
       <c r="G59" s="3">
         <v>0.64190762999999995</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>28</v>
+      </c>
+      <c r="I59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -7887,8 +8249,14 @@
       <c r="G60" s="3">
         <v>0.56644576999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>69</v>
+      </c>
+      <c r="I60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -7910,8 +8278,14 @@
       <c r="G61" s="3">
         <v>0.65231943000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -7933,8 +8307,14 @@
       <c r="G62" s="3">
         <v>0.55007340000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>74</v>
+      </c>
+      <c r="I62">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -7956,8 +8336,14 @@
       <c r="G63" s="3">
         <v>0.4594355</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>25</v>
+      </c>
+      <c r="I63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -7979,8 +8365,14 @@
       <c r="G64" s="3">
         <v>0.63556250000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>53</v>
+      </c>
+      <c r="I64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -8002,8 +8394,14 @@
       <c r="G65" s="3">
         <v>0.33814684</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>93</v>
+      </c>
+      <c r="I65">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -8025,8 +8423,14 @@
       <c r="G66" s="3">
         <v>0.65983033000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>27</v>
+      </c>
+      <c r="I66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -8048,8 +8452,14 @@
       <c r="G67" s="3">
         <v>0.31409585000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>79</v>
+      </c>
+      <c r="I67">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -8071,8 +8481,14 @@
       <c r="G68" s="3">
         <v>0.64006143999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>103</v>
+      </c>
+      <c r="I68">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -8094,8 +8510,14 @@
       <c r="G69" s="3">
         <v>0.66058415000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>18</v>
+      </c>
+      <c r="I69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -8117,8 +8539,14 @@
       <c r="G70" s="3">
         <v>0.48629351999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>37</v>
+      </c>
+      <c r="I70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -8140,8 +8568,14 @@
       <c r="G71" s="3">
         <v>0.75612420000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -8163,8 +8597,14 @@
       <c r="G72" s="3">
         <v>0.41173404000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>64</v>
+      </c>
+      <c r="I72">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -8186,8 +8626,14 @@
       <c r="G73" s="3">
         <v>0.60865619999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>35</v>
+      </c>
+      <c r="I73">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -8209,8 +8655,14 @@
       <c r="G74" s="3">
         <v>0.26562590000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>33</v>
+      </c>
+      <c r="I74">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -8232,8 +8684,14 @@
       <c r="G75" s="3">
         <v>0.53659109999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>18</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>80</v>
       </c>
@@ -8255,8 +8713,14 @@
       <c r="G76" s="3">
         <v>0.51964885000000005</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>65</v>
+      </c>
+      <c r="I76">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -8278,8 +8742,14 @@
       <c r="G77" s="3">
         <v>0.60809749999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>96</v>
+      </c>
+      <c r="I77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>82</v>
       </c>
@@ -8301,8 +8771,14 @@
       <c r="G78" s="3">
         <v>0.22081534999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>29</v>
+      </c>
+      <c r="I78">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -8324,8 +8800,14 @@
       <c r="G79" s="3">
         <v>0.46315070000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -8347,8 +8829,14 @@
       <c r="G80" s="3">
         <v>0.72650707000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>13</v>
+      </c>
+      <c r="I80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -8370,8 +8858,14 @@
       <c r="G81" s="3">
         <v>0.46565037999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>49</v>
+      </c>
+      <c r="I81">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
@@ -8393,8 +8887,14 @@
       <c r="G82" s="3">
         <v>0.37019144999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>14</v>
+      </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>87</v>
       </c>
@@ -8416,8 +8916,14 @@
       <c r="G83" s="3">
         <v>0.42062040000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>52</v>
+      </c>
+      <c r="I83">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>88</v>
       </c>
@@ -8439,8 +8945,14 @@
       <c r="G84" s="3">
         <v>0.48415518000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>144</v>
+      </c>
+      <c r="I84">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>89</v>
       </c>
@@ -8462,8 +8974,14 @@
       <c r="G85" s="3">
         <v>0.66591339999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>25</v>
+      </c>
+      <c r="I85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>90</v>
       </c>
@@ -8485,8 +9003,14 @@
       <c r="G86" s="3">
         <v>0.38483985999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>36</v>
+      </c>
+      <c r="I86">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>91</v>
       </c>
@@ -8508,8 +9032,14 @@
       <c r="G87" s="3">
         <v>0.50268900000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>48</v>
+      </c>
+      <c r="I87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -8531,8 +9061,14 @@
       <c r="G88" s="3">
         <v>0.58287219999999995</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>63</v>
+      </c>
+      <c r="I88">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>93</v>
       </c>
@@ -8554,8 +9090,14 @@
       <c r="G89" s="3">
         <v>0.55077964000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>167</v>
+      </c>
+      <c r="I89">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -8577,8 +9119,14 @@
       <c r="G90" s="3">
         <v>0.42684667999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>20</v>
+      </c>
+      <c r="I90">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -8600,8 +9148,14 @@
       <c r="G91" s="3">
         <v>0.58614900000000003</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>179</v>
+      </c>
+      <c r="I91">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -8623,8 +9177,14 @@
       <c r="G92" s="3">
         <v>0.34324401999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>37</v>
+      </c>
+      <c r="I92">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>97</v>
       </c>
@@ -8646,8 +9206,14 @@
       <c r="G93" s="3">
         <v>0.61766069999999995</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>45</v>
+      </c>
+      <c r="I93">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>98</v>
       </c>
@@ -8669,8 +9235,14 @@
       <c r="G94" s="3">
         <v>0.66693234000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>15</v>
+      </c>
+      <c r="I94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>99</v>
       </c>
@@ -8692,8 +9264,14 @@
       <c r="G95" s="3">
         <v>0.52367940000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>59</v>
+      </c>
+      <c r="I95">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>100</v>
       </c>
@@ -8715,8 +9293,14 @@
       <c r="G96" s="3">
         <v>0.22998413000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>50</v>
+      </c>
+      <c r="I96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
@@ -8738,8 +9322,14 @@
       <c r="G97" s="3">
         <v>0.42717358</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>74</v>
+      </c>
+      <c r="I97">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>102</v>
       </c>
@@ -8761,8 +9351,14 @@
       <c r="G98" s="3">
         <v>0.66827990000000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>58</v>
+      </c>
+      <c r="I98">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>103</v>
       </c>
@@ -8784,8 +9380,14 @@
       <c r="G99" s="3">
         <v>0.47034063999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>78</v>
+      </c>
+      <c r="I99">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
@@ -8807,8 +9409,14 @@
       <c r="G100" s="3">
         <v>0.27376792</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>9</v>
+      </c>
+      <c r="I100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>105</v>
       </c>
@@ -8830,8 +9438,14 @@
       <c r="G101" s="3">
         <v>0.63128640000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>61</v>
+      </c>
+      <c r="I101">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>106</v>
       </c>
@@ -8853,8 +9467,14 @@
       <c r="G102" s="3">
         <v>0.49368109999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>65</v>
+      </c>
+      <c r="I102">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>107</v>
       </c>
@@ -8876,8 +9496,14 @@
       <c r="G103" s="3">
         <v>0.66840149999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>57</v>
+      </c>
+      <c r="I103">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
@@ -8899,8 +9525,14 @@
       <c r="G104" s="3">
         <v>0.58455710000000005</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>87</v>
+      </c>
+      <c r="I104">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>109</v>
       </c>
@@ -8922,8 +9554,14 @@
       <c r="G105" s="3">
         <v>0.32060358</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>56</v>
+      </c>
+      <c r="I105">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>110</v>
       </c>
@@ -8945,8 +9583,14 @@
       <c r="G106" s="3">
         <v>0.67868114000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>24</v>
+      </c>
+      <c r="I106">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>111</v>
       </c>
@@ -8968,8 +9612,14 @@
       <c r="G107" s="3">
         <v>0.53824793999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>27</v>
+      </c>
+      <c r="I107">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>112</v>
       </c>
@@ -8991,8 +9641,14 @@
       <c r="G108" s="3">
         <v>0.60211276999999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>31</v>
+      </c>
+      <c r="I108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>113</v>
       </c>
@@ -9014,8 +9670,14 @@
       <c r="G109" s="3">
         <v>0.53281087000000005</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>32</v>
+      </c>
+      <c r="I109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>114</v>
       </c>
@@ -9037,8 +9699,14 @@
       <c r="G110" s="3">
         <v>0.41980012999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>36</v>
+      </c>
+      <c r="I110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>115</v>
       </c>
@@ -9060,8 +9728,14 @@
       <c r="G111" s="3">
         <v>0.47459304000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>116</v>
       </c>
@@ -9083,8 +9757,14 @@
       <c r="G112" s="3">
         <v>0.6964899</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>22</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>117</v>
       </c>
@@ -9106,8 +9786,14 @@
       <c r="G113" s="3">
         <v>0.65824400000000005</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>23</v>
+      </c>
+      <c r="I113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>118</v>
       </c>
@@ -9129,8 +9815,14 @@
       <c r="G114" s="3">
         <v>0.36057033999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>16</v>
+      </c>
+      <c r="I114">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>119</v>
       </c>
@@ -9152,8 +9844,14 @@
       <c r="G115" s="3">
         <v>0.32609606000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>23</v>
+      </c>
+      <c r="I115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>120</v>
       </c>
@@ -9175,8 +9873,14 @@
       <c r="G116" s="3">
         <v>0.66524539999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>68</v>
+      </c>
+      <c r="I116">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>121</v>
       </c>
@@ -9198,8 +9902,14 @@
       <c r="G117" s="3">
         <v>0.69937939999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>42</v>
+      </c>
+      <c r="I117">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>122</v>
       </c>
@@ -9221,8 +9931,14 @@
       <c r="G118" s="3">
         <v>0.4708251</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>39</v>
+      </c>
+      <c r="I118">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>123</v>
       </c>
@@ -9244,8 +9960,14 @@
       <c r="G119" s="3">
         <v>0.59668160000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>27</v>
+      </c>
+      <c r="I119">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>124</v>
       </c>
@@ -9267,8 +9989,14 @@
       <c r="G120" s="3">
         <v>0.55205583999999996</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>126</v>
+      </c>
+      <c r="I120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>125</v>
       </c>
@@ -9290,8 +10018,14 @@
       <c r="G121" s="3">
         <v>0.64954924999999997</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>63</v>
+      </c>
+      <c r="I121">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>126</v>
       </c>
@@ -9313,8 +10047,14 @@
       <c r="G122" s="3">
         <v>0.61356149999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>20</v>
+      </c>
+      <c r="I122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>127</v>
       </c>
@@ -9336,8 +10076,14 @@
       <c r="G123" s="3">
         <v>0.37121934000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>60</v>
+      </c>
+      <c r="I123">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>128</v>
       </c>
@@ -9359,8 +10105,14 @@
       <c r="G124" s="3">
         <v>0.66989266999999997</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>67</v>
+      </c>
+      <c r="I124">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>129</v>
       </c>
@@ -9382,8 +10134,14 @@
       <c r="G125" s="3">
         <v>0.70405923999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>41</v>
+      </c>
+      <c r="I125">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>130</v>
       </c>
@@ -9405,8 +10163,14 @@
       <c r="G126" s="3">
         <v>0.59162749999999997</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>31</v>
+      </c>
+      <c r="I126">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>131</v>
       </c>
@@ -9428,8 +10192,14 @@
       <c r="G127" s="3">
         <v>0.42676520000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>50</v>
+      </c>
+      <c r="I127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>132</v>
       </c>
@@ -9451,8 +10221,14 @@
       <c r="G128" s="3">
         <v>0.4926334</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>37</v>
+      </c>
+      <c r="I128">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>133</v>
       </c>
@@ -9474,8 +10250,14 @@
       <c r="G129" s="3">
         <v>0.44338830000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>134</v>
       </c>
@@ -9497,8 +10279,14 @@
       <c r="G130" s="3">
         <v>0.64117740000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>135</v>
       </c>
@@ -9520,8 +10308,14 @@
       <c r="G131" s="3">
         <v>0.50024820000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>25</v>
+      </c>
+      <c r="I131">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>136</v>
       </c>
@@ -9543,8 +10337,14 @@
       <c r="G132" s="3">
         <v>0.65565470000000003</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>60</v>
+      </c>
+      <c r="I132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>137</v>
       </c>
@@ -9566,8 +10366,14 @@
       <c r="G133" s="3">
         <v>0.54346174000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>34</v>
+      </c>
+      <c r="I133">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>138</v>
       </c>
@@ -9589,8 +10395,14 @@
       <c r="G134" s="3">
         <v>0.32557380000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>25</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>139</v>
       </c>
@@ -9612,8 +10424,14 @@
       <c r="G135" s="3">
         <v>0.48358116000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>69</v>
+      </c>
+      <c r="I135">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>140</v>
       </c>
@@ -9635,8 +10453,14 @@
       <c r="G136" s="3">
         <v>0.32072352999999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>44</v>
+      </c>
+      <c r="I136">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>141</v>
       </c>
@@ -9658,8 +10482,14 @@
       <c r="G137" s="3">
         <v>0.57559174000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>38</v>
+      </c>
+      <c r="I137">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>142</v>
       </c>
@@ -9681,8 +10511,14 @@
       <c r="G138" s="3">
         <v>0.43237500000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>30</v>
+      </c>
+      <c r="I138">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>143</v>
       </c>
@@ -9704,8 +10540,14 @@
       <c r="G139" s="3">
         <v>0.59925437000000004</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>41</v>
+      </c>
+      <c r="I139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>144</v>
       </c>
@@ -9727,8 +10569,14 @@
       <c r="G140" s="3">
         <v>0.41362965000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>61</v>
+      </c>
+      <c r="I140">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>145</v>
       </c>
@@ -9750,8 +10598,14 @@
       <c r="G141" s="3">
         <v>0.4333651</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>20</v>
+      </c>
+      <c r="I141">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>146</v>
       </c>
@@ -9773,8 +10627,14 @@
       <c r="G142" s="3">
         <v>0.79157233000000005</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>12</v>
+      </c>
+      <c r="I142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>147</v>
       </c>
@@ -9796,8 +10656,14 @@
       <c r="G143" s="3">
         <v>0.38093850000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>59</v>
+      </c>
+      <c r="I143">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9819,8 +10685,14 @@
       <c r="G144" s="3">
         <v>0.49618852000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>35</v>
+      </c>
+      <c r="I144">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9842,8 +10714,14 @@
       <c r="G145" s="3">
         <v>0.35833897999999997</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>74</v>
+      </c>
+      <c r="I145">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>150</v>
       </c>
@@ -9865,8 +10743,14 @@
       <c r="G146" s="3">
         <v>0.40949619999999998</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>82</v>
+      </c>
+      <c r="I146">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>151</v>
       </c>
@@ -9888,8 +10772,14 @@
       <c r="G147" s="3">
         <v>0.72870060000000003</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>122</v>
+      </c>
+      <c r="I147">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>152</v>
       </c>
@@ -9911,8 +10801,14 @@
       <c r="G148" s="3">
         <v>0.44287844999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>114</v>
+      </c>
+      <c r="I148">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>153</v>
       </c>
@@ -9934,8 +10830,14 @@
       <c r="G149" s="3">
         <v>0.54237734999999998</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>24</v>
+      </c>
+      <c r="I149">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>154</v>
       </c>
@@ -9957,8 +10859,14 @@
       <c r="G150" s="3">
         <v>0.35473114</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>45</v>
+      </c>
+      <c r="I150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>155</v>
       </c>
@@ -9980,8 +10888,14 @@
       <c r="G151" s="3">
         <v>0.69993024999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>13</v>
+      </c>
+      <c r="I151">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>156</v>
       </c>
@@ -10003,8 +10917,14 @@
       <c r="G152" s="3">
         <v>0.70182420000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>92</v>
+      </c>
+      <c r="I152">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>157</v>
       </c>
@@ -10026,8 +10946,14 @@
       <c r="G153" s="3">
         <v>0.79619839999999997</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>6</v>
+      </c>
+      <c r="I153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>158</v>
       </c>
@@ -10049,8 +10975,14 @@
       <c r="G154" s="3">
         <v>0.4272107</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>4</v>
+      </c>
+      <c r="I154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>159</v>
       </c>
@@ -10072,8 +11004,14 @@
       <c r="G155" s="3">
         <v>0.44954850000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>33</v>
+      </c>
+      <c r="I155">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>160</v>
       </c>
@@ -10095,8 +11033,14 @@
       <c r="G156" s="3">
         <v>0.35360029999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>63</v>
+      </c>
+      <c r="I156">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>161</v>
       </c>
@@ -10118,8 +11062,14 @@
       <c r="G157" s="3">
         <v>0.66924320000000004</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>8</v>
+      </c>
+      <c r="I157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>162</v>
       </c>
@@ -10141,8 +11091,14 @@
       <c r="G158" s="3">
         <v>0.64044820000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>126</v>
+      </c>
+      <c r="I158">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>163</v>
       </c>
@@ -10164,8 +11120,14 @@
       <c r="G159" s="3">
         <v>0.71884780000000004</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>26</v>
+      </c>
+      <c r="I159">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>164</v>
       </c>
@@ -10187,8 +11149,14 @@
       <c r="G160" s="3">
         <v>0.64864699999999997</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>50</v>
+      </c>
+      <c r="I160">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>165</v>
       </c>
@@ -10210,8 +11178,14 @@
       <c r="G161" s="3">
         <v>0.41591758000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <v>53</v>
+      </c>
+      <c r="I161">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>166</v>
       </c>
@@ -10233,8 +11207,14 @@
       <c r="G162" s="3">
         <v>0.41499394000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <v>35</v>
+      </c>
+      <c r="I162">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>167</v>
       </c>
@@ -10256,8 +11236,14 @@
       <c r="G163" s="3">
         <v>0.49622445999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <v>58</v>
+      </c>
+      <c r="I163">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>168</v>
       </c>
@@ -10279,8 +11265,14 @@
       <c r="G164" s="3">
         <v>0.47909600000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <v>28</v>
+      </c>
+      <c r="I164">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>169</v>
       </c>
@@ -10302,8 +11294,14 @@
       <c r="G165" s="3">
         <v>0.64260600000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <v>81</v>
+      </c>
+      <c r="I165">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>170</v>
       </c>
@@ -10325,8 +11323,14 @@
       <c r="G166" s="3">
         <v>0.41853185999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <v>35</v>
+      </c>
+      <c r="I166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>171</v>
       </c>
@@ -10348,8 +11352,14 @@
       <c r="G167" s="3">
         <v>0.53048086000000005</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <v>173</v>
+      </c>
+      <c r="I167">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>172</v>
       </c>
@@ -10371,8 +11381,14 @@
       <c r="G168" s="3">
         <v>0.50153490000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <v>39</v>
+      </c>
+      <c r="I168">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>173</v>
       </c>
@@ -10394,8 +11410,14 @@
       <c r="G169" s="3">
         <v>0.25757777999999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <v>18</v>
+      </c>
+      <c r="I169">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>174</v>
       </c>
@@ -10417,8 +11439,14 @@
       <c r="G170" s="3">
         <v>0.44563555999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <v>70</v>
+      </c>
+      <c r="I170">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>175</v>
       </c>
@@ -10440,8 +11468,14 @@
       <c r="G171" s="3">
         <v>0.43125308000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <v>51</v>
+      </c>
+      <c r="I171">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>176</v>
       </c>
@@ -10463,8 +11497,14 @@
       <c r="G172" s="3">
         <v>0.64444210000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <v>43</v>
+      </c>
+      <c r="I172">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>177</v>
       </c>
@@ -10486,8 +11526,14 @@
       <c r="G173" s="3">
         <v>0.49173613999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H173">
+        <v>33</v>
+      </c>
+      <c r="I173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>178</v>
       </c>
@@ -10509,8 +11555,14 @@
       <c r="G174" s="3">
         <v>0.72556929999999997</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <v>73</v>
+      </c>
+      <c r="I174">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>179</v>
       </c>
@@ -10532,8 +11584,14 @@
       <c r="G175" s="3">
         <v>0.63126559999999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <v>38</v>
+      </c>
+      <c r="I175">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>180</v>
       </c>
@@ -10555,8 +11613,14 @@
       <c r="G176" s="3">
         <v>0.54847140000000005</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <v>30</v>
+      </c>
+      <c r="I176">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>181</v>
       </c>
@@ -10578,8 +11642,14 @@
       <c r="G177" s="3">
         <v>0.62501989999999996</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>182</v>
       </c>
@@ -10601,8 +11671,14 @@
       <c r="G178" s="3">
         <v>0.36214380000000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>32</v>
+      </c>
+      <c r="I178">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>183</v>
       </c>
@@ -10624,8 +11700,14 @@
       <c r="G179" s="3">
         <v>0.58277159999999995</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <v>47</v>
+      </c>
+      <c r="I179">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>184</v>
       </c>
@@ -10647,8 +11729,14 @@
       <c r="G180" s="3">
         <v>0.54552906999999995</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <v>23</v>
+      </c>
+      <c r="I180">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>185</v>
       </c>
@@ -10670,8 +11758,14 @@
       <c r="G181" s="3">
         <v>0.61542960000000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <v>65</v>
+      </c>
+      <c r="I181">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>186</v>
       </c>
@@ -10693,8 +11787,14 @@
       <c r="G182" s="3">
         <v>0.39025557</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H182">
+        <v>25</v>
+      </c>
+      <c r="I182">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>187</v>
       </c>
@@ -10716,8 +11816,14 @@
       <c r="G183" s="3">
         <v>0.5503072</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <v>98</v>
+      </c>
+      <c r="I183">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>188</v>
       </c>
@@ -10739,8 +11845,14 @@
       <c r="G184" s="3">
         <v>0.38426011999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <v>16</v>
+      </c>
+      <c r="I184">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>189</v>
       </c>
@@ -10762,8 +11874,14 @@
       <c r="G185" s="3">
         <v>0.41119397000000002</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <v>76</v>
+      </c>
+      <c r="I185">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>190</v>
       </c>
@@ -10785,8 +11903,14 @@
       <c r="G186" s="3">
         <v>0.58035946000000005</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <v>130</v>
+      </c>
+      <c r="I186">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>191</v>
       </c>
@@ -10808,8 +11932,14 @@
       <c r="G187" s="3">
         <v>0.51542909999999997</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <v>30</v>
+      </c>
+      <c r="I187">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>192</v>
       </c>
@@ -10831,8 +11961,14 @@
       <c r="G188" s="3">
         <v>0.51362949999999996</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <v>56</v>
+      </c>
+      <c r="I188">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>193</v>
       </c>
@@ -10854,8 +11990,14 @@
       <c r="G189" s="3">
         <v>0.61061299999999996</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>88</v>
+      </c>
+      <c r="I189">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>194</v>
       </c>
@@ -10877,8 +12019,14 @@
       <c r="G190" s="3">
         <v>0.37460169999999998</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <v>43</v>
+      </c>
+      <c r="I190">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>195</v>
       </c>
@@ -10900,8 +12048,14 @@
       <c r="G191" s="3">
         <v>0.6858784</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <v>175</v>
+      </c>
+      <c r="I191">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>196</v>
       </c>
@@ -10923,8 +12077,14 @@
       <c r="G192" s="3">
         <v>0.6484048</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <v>36</v>
+      </c>
+      <c r="I192">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>197</v>
       </c>
@@ -10946,8 +12106,14 @@
       <c r="G193" s="3">
         <v>0.72872806000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <v>8</v>
+      </c>
+      <c r="I193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>198</v>
       </c>
@@ -10969,8 +12135,14 @@
       <c r="G194" s="3">
         <v>0.39205889999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <v>26</v>
+      </c>
+      <c r="I194">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>199</v>
       </c>
@@ -10992,8 +12164,14 @@
       <c r="G195" s="3">
         <v>0.59775140000000004</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <v>71</v>
+      </c>
+      <c r="I195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>200</v>
       </c>
@@ -11015,8 +12193,14 @@
       <c r="G196" s="3">
         <v>0.56594734999999996</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <v>44</v>
+      </c>
+      <c r="I196">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>201</v>
       </c>
@@ -11038,8 +12222,14 @@
       <c r="G197" s="3">
         <v>0.32812960000000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <v>91</v>
+      </c>
+      <c r="I197">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>202</v>
       </c>
@@ -11061,8 +12251,14 @@
       <c r="G198" s="3">
         <v>0.65343695999999996</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <v>17</v>
+      </c>
+      <c r="I198">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>203</v>
       </c>
@@ -11084,8 +12280,14 @@
       <c r="G199" s="3">
         <v>0.45516341999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <v>8</v>
+      </c>
+      <c r="I199">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>204</v>
       </c>
@@ -11107,8 +12309,14 @@
       <c r="G200" s="3">
         <v>0.47219896</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <v>17</v>
+      </c>
+      <c r="I200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>205</v>
       </c>
@@ -11130,8 +12338,14 @@
       <c r="G201" s="3">
         <v>0.48663079999999997</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <v>146</v>
+      </c>
+      <c r="I201">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>206</v>
       </c>
@@ -11153,8 +12367,14 @@
       <c r="G202" s="3">
         <v>0.2130341</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <v>39</v>
+      </c>
+      <c r="I202">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>207</v>
       </c>
@@ -11176,8 +12396,14 @@
       <c r="G203" s="3">
         <v>0.44934160000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <v>107</v>
+      </c>
+      <c r="I203">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>208</v>
       </c>
@@ -11199,8 +12425,14 @@
       <c r="G204" s="3">
         <v>0.58264804000000003</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <v>31</v>
+      </c>
+      <c r="I204">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>209</v>
       </c>
@@ -11222,8 +12454,14 @@
       <c r="G205" s="3">
         <v>0.47836053000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <v>31</v>
+      </c>
+      <c r="I205">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>210</v>
       </c>
@@ -11245,8 +12483,14 @@
       <c r="G206" s="3">
         <v>0.74152370000000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <v>75</v>
+      </c>
+      <c r="I206">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>211</v>
       </c>
@@ -11268,8 +12512,14 @@
       <c r="G207" s="3">
         <v>0.63239056000000005</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <v>64</v>
+      </c>
+      <c r="I207">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>212</v>
       </c>
@@ -11291,8 +12541,14 @@
       <c r="G208" s="3">
         <v>0.46638914999999997</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <v>66</v>
+      </c>
+      <c r="I208">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>213</v>
       </c>
@@ -11314,8 +12570,14 @@
       <c r="G209" s="3">
         <v>0.60719376999999997</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <v>14</v>
+      </c>
+      <c r="I209">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>214</v>
       </c>
@@ -11337,8 +12599,14 @@
       <c r="G210" s="3">
         <v>0.65073126999999997</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <v>64</v>
+      </c>
+      <c r="I210">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>215</v>
       </c>
@@ -11360,8 +12628,14 @@
       <c r="G211" s="3">
         <v>0.63411379999999995</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <v>46</v>
+      </c>
+      <c r="I211">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>216</v>
       </c>
@@ -11383,8 +12657,14 @@
       <c r="G212" s="3">
         <v>0.51023260000000004</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <v>40</v>
+      </c>
+      <c r="I212">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>217</v>
       </c>
@@ -11406,8 +12686,14 @@
       <c r="G213" s="3">
         <v>0.45107596999999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H213">
+        <v>38</v>
+      </c>
+      <c r="I213">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>218</v>
       </c>
@@ -11429,8 +12715,14 @@
       <c r="G214" s="3">
         <v>0.57681172999999997</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <v>28</v>
+      </c>
+      <c r="I214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>219</v>
       </c>
@@ -11452,8 +12744,14 @@
       <c r="G215" s="3">
         <v>0.52877235</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <v>21</v>
+      </c>
+      <c r="I215">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>220</v>
       </c>
@@ -11475,8 +12773,14 @@
       <c r="G216" s="3">
         <v>0.69668262999999997</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <v>29</v>
+      </c>
+      <c r="I216">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>221</v>
       </c>
@@ -11498,8 +12802,14 @@
       <c r="G217" s="3">
         <v>0.45088544000000003</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H217">
+        <v>57</v>
+      </c>
+      <c r="I217">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>222</v>
       </c>
@@ -11521,8 +12831,14 @@
       <c r="G218" s="3">
         <v>0.3958737</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218">
+        <v>36</v>
+      </c>
+      <c r="I218">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>223</v>
       </c>
@@ -11544,8 +12860,14 @@
       <c r="G219" s="3">
         <v>0.42506596000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H219">
+        <v>5</v>
+      </c>
+      <c r="I219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>224</v>
       </c>
@@ -11567,8 +12889,14 @@
       <c r="G220" s="3">
         <v>0.63618600000000003</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <v>73</v>
+      </c>
+      <c r="I220">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>225</v>
       </c>
@@ -11590,8 +12918,14 @@
       <c r="G221" s="3">
         <v>0.58168109999999995</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <v>56</v>
+      </c>
+      <c r="I221">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>226</v>
       </c>
@@ -11613,8 +12947,14 @@
       <c r="G222" s="3">
         <v>0.4375772</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H222">
+        <v>37</v>
+      </c>
+      <c r="I222">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>227</v>
       </c>
@@ -11636,8 +12976,14 @@
       <c r="G223" s="3">
         <v>0.42120742999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H223">
+        <v>50</v>
+      </c>
+      <c r="I223">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>228</v>
       </c>
@@ -11659,8 +13005,14 @@
       <c r="G224" s="3">
         <v>0.37880724999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H224">
+        <v>236</v>
+      </c>
+      <c r="I224">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>229</v>
       </c>
@@ -11682,8 +13034,14 @@
       <c r="G225" s="3">
         <v>0.63181834999999997</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H225">
+        <v>33</v>
+      </c>
+      <c r="I225">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -11705,8 +13063,14 @@
       <c r="G226" s="3">
         <v>0.52025365999999995</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <v>57</v>
+      </c>
+      <c r="I226">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>231</v>
       </c>
@@ -11728,8 +13092,14 @@
       <c r="G227" s="3">
         <v>0.67327154</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H227">
+        <v>47</v>
+      </c>
+      <c r="I227">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>232</v>
       </c>
@@ -11751,8 +13121,14 @@
       <c r="G228" s="3">
         <v>0.63224659999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H228">
+        <v>21</v>
+      </c>
+      <c r="I228">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>233</v>
       </c>
@@ -11774,8 +13150,14 @@
       <c r="G229" s="3">
         <v>0.53121119999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H229">
+        <v>33</v>
+      </c>
+      <c r="I229">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>234</v>
       </c>
@@ -11797,8 +13179,14 @@
       <c r="G230" s="3">
         <v>0.50334245</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <v>84</v>
+      </c>
+      <c r="I230">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>235</v>
       </c>
@@ -11820,8 +13208,14 @@
       <c r="G231" s="3">
         <v>0.48629904000000002</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <v>105</v>
+      </c>
+      <c r="I231">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>236</v>
       </c>
@@ -11843,8 +13237,14 @@
       <c r="G232" s="3">
         <v>0.47456688000000002</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <v>18</v>
+      </c>
+      <c r="I232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>237</v>
       </c>
@@ -11866,8 +13266,14 @@
       <c r="G233" s="3">
         <v>0.73318064000000005</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H233">
+        <v>13</v>
+      </c>
+      <c r="I233">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>238</v>
       </c>
@@ -11889,8 +13295,14 @@
       <c r="G234" s="3">
         <v>0.4760897</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H234">
+        <v>78</v>
+      </c>
+      <c r="I234">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>239</v>
       </c>
@@ -11912,8 +13324,14 @@
       <c r="G235" s="3">
         <v>0.75936912999999995</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <v>21</v>
+      </c>
+      <c r="I235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>240</v>
       </c>
@@ -11935,8 +13353,14 @@
       <c r="G236" s="3">
         <v>0.64397199999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H236">
+        <v>33</v>
+      </c>
+      <c r="I236">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>241</v>
       </c>
@@ -11958,8 +13382,14 @@
       <c r="G237" s="3">
         <v>0.6223398</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <v>50</v>
+      </c>
+      <c r="I237">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>242</v>
       </c>
@@ -11981,8 +13411,14 @@
       <c r="G238" s="3">
         <v>0.3478851</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <v>14</v>
+      </c>
+      <c r="I238">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>243</v>
       </c>
@@ -12004,8 +13440,14 @@
       <c r="G239" s="3">
         <v>0.70401656999999995</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H239">
+        <v>24</v>
+      </c>
+      <c r="I239">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>244</v>
       </c>
@@ -12027,8 +13469,14 @@
       <c r="G240" s="3">
         <v>0.58152073999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <v>32</v>
+      </c>
+      <c r="I240">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>245</v>
       </c>
@@ -12050,8 +13498,14 @@
       <c r="G241" s="3">
         <v>0.50243070000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H241">
+        <v>24</v>
+      </c>
+      <c r="I241">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>246</v>
       </c>
@@ -12073,8 +13527,14 @@
       <c r="G242" s="3">
         <v>0.57282120000000003</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H242">
+        <v>21</v>
+      </c>
+      <c r="I242">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>247</v>
       </c>
@@ -12096,8 +13556,14 @@
       <c r="G243" s="3">
         <v>0.14788377</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H243">
+        <v>23</v>
+      </c>
+      <c r="I243">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>248</v>
       </c>
@@ -12119,8 +13585,14 @@
       <c r="G244" s="3">
         <v>0.61614210000000003</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H244">
+        <v>134</v>
+      </c>
+      <c r="I244">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>249</v>
       </c>
@@ -12142,8 +13614,14 @@
       <c r="G245" s="3">
         <v>0.62927770000000005</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <v>47</v>
+      </c>
+      <c r="I245">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>250</v>
       </c>
@@ -12165,8 +13643,14 @@
       <c r="G246" s="3">
         <v>0.48399755</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H246">
+        <v>65</v>
+      </c>
+      <c r="I246">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>251</v>
       </c>
@@ -12188,8 +13672,14 @@
       <c r="G247" s="3">
         <v>0.58019257000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H247">
+        <v>126</v>
+      </c>
+      <c r="I247">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>252</v>
       </c>
@@ -12211,8 +13701,14 @@
       <c r="G248" s="3">
         <v>0.7204682</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248">
+        <v>47</v>
+      </c>
+      <c r="I248">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>253</v>
       </c>
@@ -12234,8 +13730,14 @@
       <c r="G249" s="3">
         <v>0.67964506000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H249">
+        <v>5</v>
+      </c>
+      <c r="I249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>254</v>
       </c>
@@ -12257,8 +13759,14 @@
       <c r="G250" s="3">
         <v>0.57337530000000003</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H250">
+        <v>43</v>
+      </c>
+      <c r="I250">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>255</v>
       </c>
@@ -12280,8 +13788,14 @@
       <c r="G251" s="3">
         <v>0.56153839999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H251">
+        <v>55</v>
+      </c>
+      <c r="I251">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>256</v>
       </c>
@@ -12303,8 +13817,14 @@
       <c r="G252" s="3">
         <v>0.56411840000000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H252">
+        <v>27</v>
+      </c>
+      <c r="I252">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>257</v>
       </c>
@@ -12326,8 +13846,14 @@
       <c r="G253" s="3">
         <v>0.30649549999999998</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H253">
+        <v>21</v>
+      </c>
+      <c r="I253">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>258</v>
       </c>
@@ -12349,8 +13875,14 @@
       <c r="G254" s="3">
         <v>0.34791644999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H254">
+        <v>32</v>
+      </c>
+      <c r="I254">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>259</v>
       </c>
@@ -12372,8 +13904,14 @@
       <c r="G255" s="3">
         <v>0.50361663000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H255">
+        <v>68</v>
+      </c>
+      <c r="I255">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>260</v>
       </c>
@@ -12395,8 +13933,14 @@
       <c r="G256" s="3">
         <v>0.59906769999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H256">
+        <v>104</v>
+      </c>
+      <c r="I256">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>261</v>
       </c>
@@ -12418,8 +13962,14 @@
       <c r="G257" s="3">
         <v>0.55662630000000002</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H257">
+        <v>60</v>
+      </c>
+      <c r="I257">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>262</v>
       </c>
@@ -12441,8 +13991,14 @@
       <c r="G258" s="3">
         <v>0.4365579</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H258">
+        <v>80</v>
+      </c>
+      <c r="I258">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>263</v>
       </c>
@@ -12464,8 +14020,14 @@
       <c r="G259" s="3">
         <v>0.61212800000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H259">
+        <v>49</v>
+      </c>
+      <c r="I259">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>264</v>
       </c>
@@ -12487,8 +14049,14 @@
       <c r="G260" s="3">
         <v>0.30854174000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260">
+        <v>69</v>
+      </c>
+      <c r="I260">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>265</v>
       </c>
@@ -12510,8 +14078,14 @@
       <c r="G261" s="3">
         <v>0.40123034000000002</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H261">
+        <v>15</v>
+      </c>
+      <c r="I261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>266</v>
       </c>
@@ -12533,8 +14107,14 @@
       <c r="G262" s="3">
         <v>0.57041525999999998</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H262">
+        <v>55</v>
+      </c>
+      <c r="I262">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>267</v>
       </c>
@@ -12556,8 +14136,14 @@
       <c r="G263" s="3">
         <v>0.53995556</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H263">
+        <v>61</v>
+      </c>
+      <c r="I263">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>268</v>
       </c>
@@ -12579,8 +14165,14 @@
       <c r="G264" s="3">
         <v>0.27674374000000002</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H264">
+        <v>183</v>
+      </c>
+      <c r="I264">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -12602,8 +14194,14 @@
       <c r="G265" s="3">
         <v>0.65489370000000002</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H265">
+        <v>18</v>
+      </c>
+      <c r="I265">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>270</v>
       </c>
@@ -12625,8 +14223,14 @@
       <c r="G266" s="3">
         <v>0.45980364000000001</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H266">
+        <v>64</v>
+      </c>
+      <c r="I266">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>271</v>
       </c>
@@ -12648,8 +14252,14 @@
       <c r="G267" s="3">
         <v>0.51046210000000003</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <v>45</v>
+      </c>
+      <c r="I267">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>272</v>
       </c>
@@ -12671,8 +14281,14 @@
       <c r="G268" s="3">
         <v>0.66116892999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H268">
+        <v>17</v>
+      </c>
+      <c r="I268">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>273</v>
       </c>
@@ -12694,8 +14310,14 @@
       <c r="G269" s="3">
         <v>0.66219276000000005</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H269">
+        <v>92</v>
+      </c>
+      <c r="I269">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>274</v>
       </c>
@@ -12717,8 +14339,14 @@
       <c r="G270" s="3">
         <v>0.63779454999999996</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H270">
+        <v>57</v>
+      </c>
+      <c r="I270">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>275</v>
       </c>
@@ -12740,8 +14368,14 @@
       <c r="G271" s="3">
         <v>0.77795550000000002</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H271">
+        <v>17</v>
+      </c>
+      <c r="I271">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>276</v>
       </c>
@@ -12763,8 +14397,14 @@
       <c r="G272" s="3">
         <v>0.47611039999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H272">
+        <v>62</v>
+      </c>
+      <c r="I272">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>277</v>
       </c>
@@ -12786,8 +14426,14 @@
       <c r="G273" s="3">
         <v>0.53881190000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H273">
+        <v>48</v>
+      </c>
+      <c r="I273">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>278</v>
       </c>
@@ -12809,8 +14455,14 @@
       <c r="G274" s="3">
         <v>0.56270105000000004</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H274">
+        <v>113</v>
+      </c>
+      <c r="I274">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>279</v>
       </c>
@@ -12832,8 +14484,14 @@
       <c r="G275" s="3">
         <v>0.32927580000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H275">
+        <v>31</v>
+      </c>
+      <c r="I275">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>280</v>
       </c>
@@ -12855,8 +14513,14 @@
       <c r="G276" s="3">
         <v>0.48900060000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H276">
+        <v>104</v>
+      </c>
+      <c r="I276">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>281</v>
       </c>
@@ -12878,8 +14542,14 @@
       <c r="G277" s="3">
         <v>0.50439460000000003</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H277">
+        <v>27</v>
+      </c>
+      <c r="I277">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>282</v>
       </c>
@@ -12901,8 +14571,14 @@
       <c r="G278" s="3">
         <v>0.63680923</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H278">
+        <v>57</v>
+      </c>
+      <c r="I278">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>283</v>
       </c>
@@ -12924,8 +14600,14 @@
       <c r="G279" s="3">
         <v>0.51028759999999995</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H279">
+        <v>35</v>
+      </c>
+      <c r="I279">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>284</v>
       </c>
@@ -12947,8 +14629,14 @@
       <c r="G280" s="3">
         <v>0.60321309999999995</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H280">
+        <v>88</v>
+      </c>
+      <c r="I280">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>285</v>
       </c>
@@ -12970,8 +14658,14 @@
       <c r="G281" s="3">
         <v>0.49960312000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H281">
+        <v>80</v>
+      </c>
+      <c r="I281">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>286</v>
       </c>
@@ -12993,8 +14687,14 @@
       <c r="G282" s="3">
         <v>0.64211786000000004</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H282">
+        <v>21</v>
+      </c>
+      <c r="I282">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>287</v>
       </c>
@@ -13016,8 +14716,14 @@
       <c r="G283" s="3">
         <v>0.48257225999999998</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H283">
+        <v>33</v>
+      </c>
+      <c r="I283">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>288</v>
       </c>
@@ -13039,8 +14745,14 @@
       <c r="G284" s="3">
         <v>0.59944606</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H284">
+        <v>32</v>
+      </c>
+      <c r="I284">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>289</v>
       </c>
@@ -13062,8 +14774,14 @@
       <c r="G285" s="3">
         <v>0.58622353999999999</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H285">
+        <v>108</v>
+      </c>
+      <c r="I285">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>290</v>
       </c>
@@ -13085,8 +14803,14 @@
       <c r="G286" s="3">
         <v>0.42040396000000002</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286">
+        <v>47</v>
+      </c>
+      <c r="I286">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>291</v>
       </c>
@@ -13108,8 +14832,14 @@
       <c r="G287" s="3">
         <v>0.34529166999999999</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H287">
+        <v>15</v>
+      </c>
+      <c r="I287">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>292</v>
       </c>
@@ -13131,8 +14861,14 @@
       <c r="G288" s="3">
         <v>0.53333883999999998</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H288">
+        <v>44</v>
+      </c>
+      <c r="I288">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>293</v>
       </c>
@@ -13154,8 +14890,14 @@
       <c r="G289" s="3">
         <v>0.52741534000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H289">
+        <v>27</v>
+      </c>
+      <c r="I289">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>294</v>
       </c>
@@ -13177,8 +14919,14 @@
       <c r="G290" s="3">
         <v>0.33980431999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H290">
+        <v>20</v>
+      </c>
+      <c r="I290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>295</v>
       </c>
@@ -13200,8 +14948,14 @@
       <c r="G291" s="3">
         <v>0.60922337000000004</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H291">
+        <v>40</v>
+      </c>
+      <c r="I291">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>296</v>
       </c>
@@ -13223,8 +14977,14 @@
       <c r="G292" s="3">
         <v>0.57764559999999998</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H292">
+        <v>71</v>
+      </c>
+      <c r="I292">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>297</v>
       </c>
@@ -13246,8 +15006,14 @@
       <c r="G293" s="3">
         <v>0.55724430000000003</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H293">
+        <v>10</v>
+      </c>
+      <c r="I293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>298</v>
       </c>
@@ -13269,8 +15035,14 @@
       <c r="G294" s="3">
         <v>0.53875189999999995</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H294">
+        <v>31</v>
+      </c>
+      <c r="I294">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>299</v>
       </c>
@@ -13292,8 +15064,14 @@
       <c r="G295" s="3">
         <v>0.51437889999999997</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H295">
+        <v>19</v>
+      </c>
+      <c r="I295">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>300</v>
       </c>
@@ -13315,8 +15093,14 @@
       <c r="G296" s="3">
         <v>0.67822749999999998</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H296">
+        <v>14</v>
+      </c>
+      <c r="I296">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>301</v>
       </c>
@@ -13338,8 +15122,14 @@
       <c r="G297" s="3">
         <v>0.57479979999999997</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H297">
+        <v>178</v>
+      </c>
+      <c r="I297">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>302</v>
       </c>
@@ -13361,8 +15151,14 @@
       <c r="G298" s="3">
         <v>0.65460439999999998</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H298">
+        <v>59</v>
+      </c>
+      <c r="I298">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>303</v>
       </c>
@@ -13384,8 +15180,14 @@
       <c r="G299" s="3">
         <v>0.60131999999999997</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H299">
+        <v>23</v>
+      </c>
+      <c r="I299">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>304</v>
       </c>
@@ -13407,8 +15209,14 @@
       <c r="G300" s="3">
         <v>0.4770798</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H300">
+        <v>25</v>
+      </c>
+      <c r="I300">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>305</v>
       </c>
@@ -13430,8 +15238,14 @@
       <c r="G301" s="3">
         <v>0.20857252000000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H301">
+        <v>44</v>
+      </c>
+      <c r="I301">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>306</v>
       </c>
@@ -13453,8 +15267,14 @@
       <c r="G302" s="3">
         <v>0.36965635000000002</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H302">
+        <v>41</v>
+      </c>
+      <c r="I302">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>307</v>
       </c>
@@ -13476,8 +15296,14 @@
       <c r="G303" s="3">
         <v>0.44733267999999998</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H303">
+        <v>114</v>
+      </c>
+      <c r="I303">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>308</v>
       </c>
@@ -13499,8 +15325,14 @@
       <c r="G304" s="3">
         <v>0.52673935999999999</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H304">
+        <v>84</v>
+      </c>
+      <c r="I304">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>309</v>
       </c>
@@ -13522,8 +15354,14 @@
       <c r="G305" s="3">
         <v>0.52987635</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H305">
+        <v>64</v>
+      </c>
+      <c r="I305">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>310</v>
       </c>
@@ -13545,8 +15383,14 @@
       <c r="G306" s="3">
         <v>0.35877629999999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H306">
+        <v>37</v>
+      </c>
+      <c r="I306">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>311</v>
       </c>
@@ -13568,8 +15412,14 @@
       <c r="G307" s="3">
         <v>0.52011600000000002</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H307">
+        <v>26</v>
+      </c>
+      <c r="I307">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>312</v>
       </c>
@@ -13591,8 +15441,14 @@
       <c r="G308" s="3">
         <v>0.51128470000000004</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H308">
+        <v>159</v>
+      </c>
+      <c r="I308">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>313</v>
       </c>
@@ -13614,8 +15470,14 @@
       <c r="G309" s="3">
         <v>0.47640761999999998</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H309">
+        <v>21</v>
+      </c>
+      <c r="I309">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>314</v>
       </c>
@@ -13637,8 +15499,14 @@
       <c r="G310" s="3">
         <v>0.43642135999999998</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H310">
+        <v>104</v>
+      </c>
+      <c r="I310">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>315</v>
       </c>
@@ -13660,8 +15528,14 @@
       <c r="G311" s="3">
         <v>0.85110617</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H311">
+        <v>2</v>
+      </c>
+      <c r="I311">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>316</v>
       </c>
@@ -13683,8 +15557,14 @@
       <c r="G312" s="3">
         <v>0.41770557000000003</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H312">
+        <v>112</v>
+      </c>
+      <c r="I312">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>317</v>
       </c>
@@ -13706,8 +15586,14 @@
       <c r="G313" s="3">
         <v>0.72956869999999996</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H313">
+        <v>21</v>
+      </c>
+      <c r="I313">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>318</v>
       </c>
@@ -13729,8 +15615,14 @@
       <c r="G314" s="3">
         <v>0.3661412</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H314">
+        <v>21</v>
+      </c>
+      <c r="I314">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>319</v>
       </c>
@@ -13752,8 +15644,14 @@
       <c r="G315" s="3">
         <v>0.50577664</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H315">
+        <v>67</v>
+      </c>
+      <c r="I315">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>320</v>
       </c>
@@ -13775,8 +15673,14 @@
       <c r="G316" s="3">
         <v>0.59360480000000004</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H316">
+        <v>54</v>
+      </c>
+      <c r="I316">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>321</v>
       </c>
@@ -13798,8 +15702,14 @@
       <c r="G317" s="3">
         <v>0.46815806999999998</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H317">
+        <v>49</v>
+      </c>
+      <c r="I317">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>322</v>
       </c>
@@ -13821,8 +15731,14 @@
       <c r="G318" s="3">
         <v>0.53384465000000003</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H318">
+        <v>34</v>
+      </c>
+      <c r="I318">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>323</v>
       </c>
@@ -13844,8 +15760,14 @@
       <c r="G319" s="3">
         <v>0.42941449999999998</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H319">
+        <v>33</v>
+      </c>
+      <c r="I319">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>324</v>
       </c>
@@ -13867,8 +15789,14 @@
       <c r="G320" s="3">
         <v>0.37164049999999998</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H320">
+        <v>57</v>
+      </c>
+      <c r="I320">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>325</v>
       </c>
@@ -13890,8 +15818,14 @@
       <c r="G321" s="3">
         <v>0.64268599999999998</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H321">
+        <v>72</v>
+      </c>
+      <c r="I321">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>326</v>
       </c>
@@ -13913,8 +15847,14 @@
       <c r="G322" s="3">
         <v>0.66195530000000002</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H322">
+        <v>38</v>
+      </c>
+      <c r="I322">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>327</v>
       </c>
@@ -13936,8 +15876,14 @@
       <c r="G323" s="3">
         <v>0.85648120000000005</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H323">
+        <v>6</v>
+      </c>
+      <c r="I323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>328</v>
       </c>
@@ -13959,8 +15905,14 @@
       <c r="G324" s="3">
         <v>0.50697550000000002</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H324">
+        <v>43</v>
+      </c>
+      <c r="I324">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>329</v>
       </c>
@@ -13982,8 +15934,14 @@
       <c r="G325" s="3">
         <v>0.54589443999999998</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H325">
+        <v>126</v>
+      </c>
+      <c r="I325">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>330</v>
       </c>
@@ -14005,8 +15963,14 @@
       <c r="G326" s="3">
         <v>0.48797074000000001</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H326">
+        <v>84</v>
+      </c>
+      <c r="I326">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>331</v>
       </c>
@@ -14028,8 +15992,14 @@
       <c r="G327" s="3">
         <v>0.57491890000000001</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H327">
+        <v>22</v>
+      </c>
+      <c r="I327">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>332</v>
       </c>
@@ -14051,8 +16021,14 @@
       <c r="G328" s="3">
         <v>0.57064599999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H328">
+        <v>84</v>
+      </c>
+      <c r="I328">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>333</v>
       </c>
@@ -14074,8 +16050,14 @@
       <c r="G329" s="3">
         <v>0.60689585999999995</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H329">
+        <v>71</v>
+      </c>
+      <c r="I329">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>334</v>
       </c>
@@ -14097,8 +16079,14 @@
       <c r="G330" s="3">
         <v>0.56786559999999997</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H330">
+        <v>57</v>
+      </c>
+      <c r="I330">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>335</v>
       </c>
@@ -14120,8 +16108,14 @@
       <c r="G331" s="3">
         <v>0.57048750000000004</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H331">
+        <v>105</v>
+      </c>
+      <c r="I331">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>336</v>
       </c>
@@ -14143,8 +16137,14 @@
       <c r="G332" s="3">
         <v>0.51228149999999995</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H332">
+        <v>38</v>
+      </c>
+      <c r="I332">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>337</v>
       </c>
@@ -14166,8 +16166,14 @@
       <c r="G333" s="3">
         <v>0.73014665000000001</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H333">
+        <v>4</v>
+      </c>
+      <c r="I333">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>338</v>
       </c>
@@ -14189,8 +16195,14 @@
       <c r="G334" s="3">
         <v>0.7330856</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H334">
+        <v>31</v>
+      </c>
+      <c r="I334">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>339</v>
       </c>
@@ -14212,8 +16224,14 @@
       <c r="G335" s="3">
         <v>0.40316020000000002</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H335">
+        <v>34</v>
+      </c>
+      <c r="I335">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>340</v>
       </c>
@@ -14235,8 +16253,14 @@
       <c r="G336" s="3">
         <v>0.3881773</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H336">
+        <v>36</v>
+      </c>
+      <c r="I336">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>341</v>
       </c>
@@ -14258,8 +16282,14 @@
       <c r="G337" s="3">
         <v>0.50375265000000002</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H337">
+        <v>114</v>
+      </c>
+      <c r="I337">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>342</v>
       </c>
@@ -14281,8 +16311,14 @@
       <c r="G338" s="3">
         <v>0.49161047000000002</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H338">
+        <v>154</v>
+      </c>
+      <c r="I338">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>343</v>
       </c>
@@ -14304,8 +16340,14 @@
       <c r="G339" s="3">
         <v>0.560998</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H339">
+        <v>72</v>
+      </c>
+      <c r="I339">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>344</v>
       </c>
@@ -14327,8 +16369,14 @@
       <c r="G340" s="3">
         <v>0.2386539</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H340">
+        <v>18</v>
+      </c>
+      <c r="I340">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>345</v>
       </c>
@@ -14350,8 +16398,14 @@
       <c r="G341" s="3">
         <v>0.53120000000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H341">
+        <v>38</v>
+      </c>
+      <c r="I341">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>346</v>
       </c>
@@ -14373,8 +16427,14 @@
       <c r="G342" s="3">
         <v>0.68533504000000001</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H342">
+        <v>22</v>
+      </c>
+      <c r="I342">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>347</v>
       </c>
@@ -14396,8 +16456,14 @@
       <c r="G343" s="3">
         <v>0.52179180000000003</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H343">
+        <v>87</v>
+      </c>
+      <c r="I343">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>348</v>
       </c>
@@ -14419,8 +16485,14 @@
       <c r="G344" s="3">
         <v>0.51162700000000005</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H344">
+        <v>48</v>
+      </c>
+      <c r="I344">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>349</v>
       </c>
@@ -14442,8 +16514,14 @@
       <c r="G345" s="3">
         <v>0.31241195999999999</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H345">
+        <v>30</v>
+      </c>
+      <c r="I345">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>350</v>
       </c>
@@ -14465,8 +16543,14 @@
       <c r="G346" s="3">
         <v>0.63711770000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H346">
+        <v>64</v>
+      </c>
+      <c r="I346">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>351</v>
       </c>
@@ -14488,8 +16572,14 @@
       <c r="G347" s="3">
         <v>0.48603088</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H347">
+        <v>29</v>
+      </c>
+      <c r="I347">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>352</v>
       </c>
@@ -14511,8 +16601,14 @@
       <c r="G348" s="3">
         <v>0.50495199999999996</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H348">
+        <v>83</v>
+      </c>
+      <c r="I348">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>353</v>
       </c>
@@ -14534,8 +16630,14 @@
       <c r="G349" s="3">
         <v>0.42949015000000001</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H349">
+        <v>28</v>
+      </c>
+      <c r="I349">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>354</v>
       </c>
@@ -14557,8 +16659,14 @@
       <c r="G350" s="3">
         <v>0.44276022999999998</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H350">
+        <v>81</v>
+      </c>
+      <c r="I350">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>355</v>
       </c>
@@ -14580,8 +16688,14 @@
       <c r="G351" s="3">
         <v>0.60929639999999996</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H351">
+        <v>25</v>
+      </c>
+      <c r="I351">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>356</v>
       </c>
@@ -14603,8 +16717,14 @@
       <c r="G352" s="3">
         <v>0.75061250000000002</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H352">
+        <v>7</v>
+      </c>
+      <c r="I352">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>357</v>
       </c>
@@ -14626,8 +16746,14 @@
       <c r="G353" s="3">
         <v>0.68838220000000006</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H353">
+        <v>24</v>
+      </c>
+      <c r="I353">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>358</v>
       </c>
@@ -14649,8 +16775,14 @@
       <c r="G354" s="3">
         <v>0.63750019999999996</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H354">
+        <v>49</v>
+      </c>
+      <c r="I354">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>359</v>
       </c>
@@ -14672,8 +16804,14 @@
       <c r="G355" s="3">
         <v>0.50204325000000005</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H355">
+        <v>112</v>
+      </c>
+      <c r="I355">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>360</v>
       </c>
@@ -14695,8 +16833,14 @@
       <c r="G356" s="3">
         <v>0.74925010000000003</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H356">
+        <v>25</v>
+      </c>
+      <c r="I356">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>361</v>
       </c>
@@ -14718,8 +16862,14 @@
       <c r="G357" s="3">
         <v>0.52207789999999998</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H357">
+        <v>53</v>
+      </c>
+      <c r="I357">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>362</v>
       </c>
@@ -14741,8 +16891,14 @@
       <c r="G358" s="3">
         <v>0.5657489</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H358">
+        <v>89</v>
+      </c>
+      <c r="I358">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>363</v>
       </c>
@@ -14764,8 +16920,14 @@
       <c r="G359" s="3">
         <v>0.71058239999999995</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H359">
+        <v>45</v>
+      </c>
+      <c r="I359">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>364</v>
       </c>
@@ -14787,8 +16949,14 @@
       <c r="G360" s="3">
         <v>0.64795965</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H360">
+        <v>73</v>
+      </c>
+      <c r="I360">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>365</v>
       </c>
@@ -14810,8 +16978,14 @@
       <c r="G361" s="3">
         <v>0.49213410000000002</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H361">
+        <v>78</v>
+      </c>
+      <c r="I361">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>366</v>
       </c>
@@ -14833,8 +17007,14 @@
       <c r="G362" s="3">
         <v>0.5675616</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H362">
+        <v>28</v>
+      </c>
+      <c r="I362">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>367</v>
       </c>
@@ -14856,8 +17036,14 @@
       <c r="G363" s="3">
         <v>0.70252959999999998</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H363">
+        <v>18</v>
+      </c>
+      <c r="I363">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>368</v>
       </c>
@@ -14879,8 +17065,14 @@
       <c r="G364" s="3">
         <v>0.44317222000000001</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H364">
+        <v>32</v>
+      </c>
+      <c r="I364">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>369</v>
       </c>
@@ -14902,8 +17094,14 @@
       <c r="G365" s="3">
         <v>0.67134740000000004</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H365">
+        <v>11</v>
+      </c>
+      <c r="I365">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>370</v>
       </c>
@@ -14925,8 +17123,14 @@
       <c r="G366" s="3">
         <v>0.69814050000000005</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H366">
+        <v>19</v>
+      </c>
+      <c r="I366">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>371</v>
       </c>
@@ -14948,8 +17152,14 @@
       <c r="G367" s="3">
         <v>0.50383789999999995</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H367">
+        <v>17</v>
+      </c>
+      <c r="I367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>372</v>
       </c>
@@ -14971,8 +17181,14 @@
       <c r="G368" s="3">
         <v>0.42481223000000001</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H368">
+        <v>105</v>
+      </c>
+      <c r="I368">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>373</v>
       </c>
@@ -14994,8 +17210,14 @@
       <c r="G369" s="3">
         <v>0.26187375000000002</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H369">
+        <v>35</v>
+      </c>
+      <c r="I369">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>374</v>
       </c>
@@ -15017,8 +17239,14 @@
       <c r="G370" s="3">
         <v>0.35868430000000001</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H370">
+        <v>41</v>
+      </c>
+      <c r="I370">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>375</v>
       </c>
@@ -15040,8 +17268,14 @@
       <c r="G371" s="3">
         <v>0.62581209999999998</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H371">
+        <v>43</v>
+      </c>
+      <c r="I371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>376</v>
       </c>
@@ -15063,8 +17297,14 @@
       <c r="G372" s="3">
         <v>0.36273339999999998</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H372">
+        <v>52</v>
+      </c>
+      <c r="I372">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>377</v>
       </c>
@@ -15086,8 +17326,14 @@
       <c r="G373" s="3">
         <v>0.56182080000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H373">
+        <v>10</v>
+      </c>
+      <c r="I373">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>378</v>
       </c>
@@ -15109,8 +17355,14 @@
       <c r="G374" s="3">
         <v>0.54483289999999995</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H374">
+        <v>16</v>
+      </c>
+      <c r="I374">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>379</v>
       </c>
@@ -15132,8 +17384,14 @@
       <c r="G375" s="3">
         <v>0.54404249999999998</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H375">
+        <v>33</v>
+      </c>
+      <c r="I375">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>380</v>
       </c>
@@ -15155,8 +17413,14 @@
       <c r="G376" s="3">
         <v>0.67903559999999996</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H376">
+        <v>11</v>
+      </c>
+      <c r="I376">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>381</v>
       </c>
@@ -15178,8 +17442,14 @@
       <c r="G377" s="3">
         <v>0.74665534</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H377">
+        <v>42</v>
+      </c>
+      <c r="I377">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>382</v>
       </c>
@@ -15201,8 +17471,14 @@
       <c r="G378" s="3">
         <v>0.49086180000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H378">
+        <v>137</v>
+      </c>
+      <c r="I378">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>383</v>
       </c>
@@ -15224,8 +17500,14 @@
       <c r="G379" s="3">
         <v>0.82318820000000004</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H379">
+        <v>35</v>
+      </c>
+      <c r="I379">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>384</v>
       </c>
@@ -15247,8 +17529,14 @@
       <c r="G380" s="3">
         <v>0.50157910000000006</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H380">
+        <v>111</v>
+      </c>
+      <c r="I380">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>385</v>
       </c>
@@ -15270,8 +17558,14 @@
       <c r="G381" s="3">
         <v>0.36555573000000002</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H381">
+        <v>70</v>
+      </c>
+      <c r="I381">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>386</v>
       </c>
@@ -15293,8 +17587,14 @@
       <c r="G382" s="3">
         <v>0.53541459999999996</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H382">
+        <v>22</v>
+      </c>
+      <c r="I382">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>387</v>
       </c>
@@ -15316,8 +17616,14 @@
       <c r="G383" s="3">
         <v>0.52239597000000004</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H383">
+        <v>108</v>
+      </c>
+      <c r="I383">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>388</v>
       </c>
@@ -15339,8 +17645,14 @@
       <c r="G384" s="3">
         <v>0.67231879999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H384">
+        <v>25</v>
+      </c>
+      <c r="I384">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>389</v>
       </c>
@@ -15362,8 +17674,14 @@
       <c r="G385" s="3">
         <v>0.61488180000000003</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H385">
+        <v>41</v>
+      </c>
+      <c r="I385">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>390</v>
       </c>
@@ -15385,8 +17703,14 @@
       <c r="G386" s="3">
         <v>0.60929655999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H386">
+        <v>57</v>
+      </c>
+      <c r="I386">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>391</v>
       </c>
@@ -15408,8 +17732,14 @@
       <c r="G387" s="3">
         <v>0.66247182999999998</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H387">
+        <v>45</v>
+      </c>
+      <c r="I387">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>392</v>
       </c>
@@ -15431,8 +17761,14 @@
       <c r="G388" s="3">
         <v>0.65971809999999997</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H388">
+        <v>16</v>
+      </c>
+      <c r="I388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>393</v>
       </c>
@@ -15454,8 +17790,14 @@
       <c r="G389" s="3">
         <v>0.54779900000000004</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H389">
+        <v>131</v>
+      </c>
+      <c r="I389">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>394</v>
       </c>
@@ -15477,8 +17819,14 @@
       <c r="G390" s="3">
         <v>0.53278475999999997</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H390">
+        <v>46</v>
+      </c>
+      <c r="I390">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>395</v>
       </c>
@@ -15500,8 +17848,14 @@
       <c r="G391" s="3">
         <v>0.25994973999999998</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H391">
+        <v>59</v>
+      </c>
+      <c r="I391">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>396</v>
       </c>
@@ -15523,8 +17877,14 @@
       <c r="G392" s="3">
         <v>0.53339040000000004</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H392">
+        <v>42</v>
+      </c>
+      <c r="I392">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>397</v>
       </c>
@@ -15546,8 +17906,14 @@
       <c r="G393" s="3">
         <v>0.61576410000000004</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H393">
+        <v>106</v>
+      </c>
+      <c r="I393">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>398</v>
       </c>
@@ -15569,8 +17935,14 @@
       <c r="G394" s="3">
         <v>0.46607472999999999</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H394">
+        <v>45</v>
+      </c>
+      <c r="I394">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>399</v>
       </c>
@@ -15592,8 +17964,14 @@
       <c r="G395" s="3">
         <v>0.71377294999999996</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H395">
+        <v>24</v>
+      </c>
+      <c r="I395">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>400</v>
       </c>
@@ -15615,8 +17993,14 @@
       <c r="G396" s="3">
         <v>0.57966726999999996</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H396">
+        <v>95</v>
+      </c>
+      <c r="I396">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>401</v>
       </c>
@@ -15638,8 +18022,14 @@
       <c r="G397" s="3">
         <v>0.68473035000000004</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H397">
+        <v>28</v>
+      </c>
+      <c r="I397">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>402</v>
       </c>
@@ -15661,8 +18051,14 @@
       <c r="G398" s="3">
         <v>0.45957512</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H398">
+        <v>51</v>
+      </c>
+      <c r="I398">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>403</v>
       </c>
@@ -15684,8 +18080,14 @@
       <c r="G399" s="3">
         <v>0.68499120000000002</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H399">
+        <v>37</v>
+      </c>
+      <c r="I399">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>404</v>
       </c>
@@ -15707,8 +18109,14 @@
       <c r="G400" s="3">
         <v>0.72142242999999995</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H400">
+        <v>33</v>
+      </c>
+      <c r="I400">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>405</v>
       </c>
@@ -15730,8 +18138,14 @@
       <c r="G401" s="3">
         <v>0.47398203999999999</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H401">
+        <v>80</v>
+      </c>
+      <c r="I401">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>406</v>
       </c>
@@ -15753,8 +18167,14 @@
       <c r="G402" s="3">
         <v>0.61489720000000003</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H402">
+        <v>40</v>
+      </c>
+      <c r="I402">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>407</v>
       </c>
@@ -15776,8 +18196,14 @@
       <c r="G403" s="3">
         <v>0.72415596000000004</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H403">
+        <v>38</v>
+      </c>
+      <c r="I403">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>408</v>
       </c>
@@ -15799,8 +18225,14 @@
       <c r="G404" s="3">
         <v>0.46890417000000001</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H404">
+        <v>58</v>
+      </c>
+      <c r="I404">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>409</v>
       </c>
@@ -15822,8 +18254,14 @@
       <c r="G405" s="3">
         <v>0.39207718000000003</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H405">
+        <v>26</v>
+      </c>
+      <c r="I405">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>410</v>
       </c>
@@ -15845,8 +18283,14 @@
       <c r="G406" s="3">
         <v>0.76964679999999996</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H406">
+        <v>213</v>
+      </c>
+      <c r="I406">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>411</v>
       </c>
@@ -15868,8 +18312,14 @@
       <c r="G407" s="3">
         <v>0.56500030000000001</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H407">
+        <v>154</v>
+      </c>
+      <c r="I407">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>412</v>
       </c>
@@ -15891,8 +18341,14 @@
       <c r="G408" s="3">
         <v>0.63093860000000002</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H408">
+        <v>41</v>
+      </c>
+      <c r="I408">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>413</v>
       </c>
@@ -15914,8 +18370,14 @@
       <c r="G409" s="3">
         <v>0.65097439999999995</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H409">
+        <v>123</v>
+      </c>
+      <c r="I409">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>414</v>
       </c>
@@ -15937,8 +18399,14 @@
       <c r="G410" s="3">
         <v>0.29742714999999997</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="H410">
+        <v>40</v>
+      </c>
+      <c r="I410">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>415</v>
       </c>
@@ -15960,8 +18428,14 @@
       <c r="G411" s="3">
         <v>0.66751720000000003</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H411">
+        <v>181</v>
+      </c>
+      <c r="I411">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>416</v>
       </c>
@@ -15983,8 +18457,14 @@
       <c r="G412" s="3">
         <v>0.68810490000000002</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H412">
+        <v>38</v>
+      </c>
+      <c r="I412">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>417</v>
       </c>
@@ -16006,8 +18486,14 @@
       <c r="G413" s="3">
         <v>0.46578553</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H413">
+        <v>30</v>
+      </c>
+      <c r="I413">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>418</v>
       </c>
@@ -16029,8 +18515,14 @@
       <c r="G414" s="3">
         <v>0.54459195999999999</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H414">
+        <v>46</v>
+      </c>
+      <c r="I414">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>419</v>
       </c>
@@ -16052,8 +18544,14 @@
       <c r="G415" s="3">
         <v>0.68457097</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H415">
+        <v>25</v>
+      </c>
+      <c r="I415">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>420</v>
       </c>
@@ -16075,8 +18573,14 @@
       <c r="G416" s="3">
         <v>0.57705735999999996</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H416">
+        <v>64</v>
+      </c>
+      <c r="I416">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>421</v>
       </c>
@@ -16098,8 +18602,14 @@
       <c r="G417" s="3">
         <v>0.39134829999999998</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H417">
+        <v>34</v>
+      </c>
+      <c r="I417">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>422</v>
       </c>
@@ -16121,8 +18631,14 @@
       <c r="G418" s="3">
         <v>0.35436946000000002</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H418">
+        <v>39</v>
+      </c>
+      <c r="I418">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>423</v>
       </c>
@@ -16144,8 +18660,14 @@
       <c r="G419" s="3">
         <v>0.55716025999999996</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H419">
+        <v>54</v>
+      </c>
+      <c r="I419">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>424</v>
       </c>
@@ -16167,8 +18689,14 @@
       <c r="G420" s="3">
         <v>0.5921961</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H420">
+        <v>55</v>
+      </c>
+      <c r="I420">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>425</v>
       </c>
@@ -16190,8 +18718,14 @@
       <c r="G421" s="3">
         <v>0.53257489999999996</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H421">
+        <v>41</v>
+      </c>
+      <c r="I421">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>426</v>
       </c>
@@ -16213,8 +18747,14 @@
       <c r="G422" s="3">
         <v>0.45098855999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H422">
+        <v>116</v>
+      </c>
+      <c r="I422">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>427</v>
       </c>
@@ -16236,8 +18776,14 @@
       <c r="G423" s="3">
         <v>0.51463663999999998</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H423">
+        <v>22</v>
+      </c>
+      <c r="I423">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>428</v>
       </c>
@@ -16259,8 +18805,14 @@
       <c r="G424" s="3">
         <v>0.67077845000000003</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H424">
+        <v>24</v>
+      </c>
+      <c r="I424">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>429</v>
       </c>
@@ -16282,8 +18834,14 @@
       <c r="G425" s="3">
         <v>0.57467170000000001</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H425">
+        <v>50</v>
+      </c>
+      <c r="I425">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>430</v>
       </c>
@@ -16305,8 +18863,14 @@
       <c r="G426" s="3">
         <v>0.67217000000000005</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H426">
+        <v>9</v>
+      </c>
+      <c r="I426">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>431</v>
       </c>
@@ -16328,8 +18892,14 @@
       <c r="G427" s="3">
         <v>0.67088650000000005</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H427">
+        <v>22</v>
+      </c>
+      <c r="I427">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>432</v>
       </c>
@@ -16351,8 +18921,14 @@
       <c r="G428" s="3">
         <v>0.80801029999999996</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H428">
+        <v>21</v>
+      </c>
+      <c r="I428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>433</v>
       </c>
@@ -16374,8 +18950,14 @@
       <c r="G429" s="3">
         <v>0.54462354999999996</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H429">
+        <v>50</v>
+      </c>
+      <c r="I429">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>434</v>
       </c>
@@ -16397,8 +18979,14 @@
       <c r="G430" s="3">
         <v>0.30644666999999998</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H430">
+        <v>5</v>
+      </c>
+      <c r="I430">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>435</v>
       </c>
@@ -16420,8 +19008,14 @@
       <c r="G431" s="3">
         <v>0.65043859999999998</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H431">
+        <v>18</v>
+      </c>
+      <c r="I431">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>436</v>
       </c>
@@ -16443,8 +19037,14 @@
       <c r="G432" s="3">
         <v>0.68396354000000004</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H432">
+        <v>98</v>
+      </c>
+      <c r="I432">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>437</v>
       </c>
@@ -16466,8 +19066,14 @@
       <c r="G433" s="3">
         <v>0.59316899999999995</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H433">
+        <v>33</v>
+      </c>
+      <c r="I433">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>438</v>
       </c>
@@ -16489,8 +19095,14 @@
       <c r="G434" s="3">
         <v>0.21122819000000001</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H434">
+        <v>46</v>
+      </c>
+      <c r="I434">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>439</v>
       </c>
@@ -16512,8 +19124,14 @@
       <c r="G435" s="3">
         <v>0.57457369999999997</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H435">
+        <v>38</v>
+      </c>
+      <c r="I435">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>440</v>
       </c>
@@ -16535,8 +19153,14 @@
       <c r="G436" s="3">
         <v>0.60159664999999996</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H436">
+        <v>52</v>
+      </c>
+      <c r="I436">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>441</v>
       </c>
@@ -16558,8 +19182,14 @@
       <c r="G437" s="3">
         <v>0.51762794999999995</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H437">
+        <v>59</v>
+      </c>
+      <c r="I437">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>442</v>
       </c>
@@ -16581,8 +19211,14 @@
       <c r="G438" s="3">
         <v>0.56973910000000005</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H438">
+        <v>75</v>
+      </c>
+      <c r="I438">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>443</v>
       </c>
@@ -16604,8 +19240,14 @@
       <c r="G439" s="3">
         <v>0.73697380000000001</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H439">
+        <v>43</v>
+      </c>
+      <c r="I439">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>444</v>
       </c>
@@ -16627,8 +19269,14 @@
       <c r="G440" s="3">
         <v>0.76773740000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H440">
+        <v>12</v>
+      </c>
+      <c r="I440">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>445</v>
       </c>
@@ -16650,8 +19298,14 @@
       <c r="G441" s="3">
         <v>0.39836302000000001</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H441">
+        <v>27</v>
+      </c>
+      <c r="I441">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>446</v>
       </c>
@@ -16673,8 +19327,14 @@
       <c r="G442" s="3">
         <v>0.53844259999999999</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H442">
+        <v>51</v>
+      </c>
+      <c r="I442">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>447</v>
       </c>
@@ -16696,8 +19356,14 @@
       <c r="G443" s="3">
         <v>0.68592185000000006</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H443">
+        <v>44</v>
+      </c>
+      <c r="I443">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>448</v>
       </c>
@@ -16719,8 +19385,14 @@
       <c r="G444" s="3">
         <v>0.79787092999999998</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H444">
+        <v>22</v>
+      </c>
+      <c r="I444">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>449</v>
       </c>
@@ -16742,8 +19414,14 @@
       <c r="G445" s="3">
         <v>0.62830260000000004</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H445">
+        <v>96</v>
+      </c>
+      <c r="I445">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>450</v>
       </c>
@@ -16765,8 +19443,14 @@
       <c r="G446" s="3">
         <v>0.60257110000000003</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H446">
+        <v>73</v>
+      </c>
+      <c r="I446">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>451</v>
       </c>
@@ -16788,8 +19472,14 @@
       <c r="G447" s="3">
         <v>0.58406924999999998</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H447">
+        <v>100</v>
+      </c>
+      <c r="I447">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>452</v>
       </c>
@@ -16811,8 +19501,14 @@
       <c r="G448" s="3">
         <v>0.64744500000000005</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H448">
+        <v>26</v>
+      </c>
+      <c r="I448">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>453</v>
       </c>
@@ -16834,8 +19530,14 @@
       <c r="G449" s="3">
         <v>0.43906790000000001</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H449">
+        <v>34</v>
+      </c>
+      <c r="I449">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>454</v>
       </c>
@@ -16857,8 +19559,14 @@
       <c r="G450" s="3">
         <v>0.63795674000000002</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H450">
+        <v>13</v>
+      </c>
+      <c r="I450">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>455</v>
       </c>
@@ -16880,8 +19588,14 @@
       <c r="G451" s="3">
         <v>0.59615063999999995</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H451">
+        <v>21</v>
+      </c>
+      <c r="I451">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>456</v>
       </c>
@@ -16903,8 +19617,14 @@
       <c r="G452" s="3">
         <v>0.5099631</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H452">
+        <v>32</v>
+      </c>
+      <c r="I452">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>457</v>
       </c>
@@ -16926,8 +19646,14 @@
       <c r="G453" s="3">
         <v>0.44003977999999999</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H453">
+        <v>37</v>
+      </c>
+      <c r="I453">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>458</v>
       </c>
@@ -16949,8 +19675,14 @@
       <c r="G454" s="3">
         <v>0.52388597000000003</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H454">
+        <v>34</v>
+      </c>
+      <c r="I454">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>459</v>
       </c>
@@ -16972,8 +19704,14 @@
       <c r="G455" s="3">
         <v>0.53004753999999998</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H455">
+        <v>50</v>
+      </c>
+      <c r="I455">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>460</v>
       </c>
@@ -16995,8 +19733,14 @@
       <c r="G456" s="3">
         <v>0.60951734000000002</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H456">
+        <v>29</v>
+      </c>
+      <c r="I456">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>461</v>
       </c>
@@ -17018,8 +19762,14 @@
       <c r="G457" s="3">
         <v>0.48068175000000002</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H457">
+        <v>59</v>
+      </c>
+      <c r="I457">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>462</v>
       </c>
@@ -17041,8 +19791,14 @@
       <c r="G458" s="3">
         <v>0.72276640000000003</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H458">
+        <v>31</v>
+      </c>
+      <c r="I458">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>463</v>
       </c>
@@ -17064,8 +19820,14 @@
       <c r="G459" s="3">
         <v>0.54549780000000003</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H459">
+        <v>102</v>
+      </c>
+      <c r="I459">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>464</v>
       </c>
@@ -17087,8 +19849,14 @@
       <c r="G460" s="3">
         <v>0.58458334000000001</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H460">
+        <v>73</v>
+      </c>
+      <c r="I460">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>465</v>
       </c>
@@ -17110,8 +19878,14 @@
       <c r="G461" s="3">
         <v>0.4328882</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H461">
+        <v>31</v>
+      </c>
+      <c r="I461">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>466</v>
       </c>
@@ -17133,8 +19907,14 @@
       <c r="G462" s="3">
         <v>0.59360979999999997</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H462">
+        <v>149</v>
+      </c>
+      <c r="I462">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>467</v>
       </c>
@@ -17156,8 +19936,14 @@
       <c r="G463" s="3">
         <v>0.71609089999999997</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>468</v>
       </c>
@@ -17179,8 +19965,14 @@
       <c r="G464" s="3">
         <v>0.5522106</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H464">
+        <v>27</v>
+      </c>
+      <c r="I464">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>469</v>
       </c>
@@ -17202,8 +19994,14 @@
       <c r="G465" s="3">
         <v>0.67676840000000005</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H465">
+        <v>14</v>
+      </c>
+      <c r="I465">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>470</v>
       </c>
@@ -17225,8 +20023,14 @@
       <c r="G466" s="3">
         <v>0.66214419999999996</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H466">
+        <v>44</v>
+      </c>
+      <c r="I466">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>471</v>
       </c>
@@ -17248,8 +20052,14 @@
       <c r="G467" s="3">
         <v>0.60501519999999998</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H467">
+        <v>77</v>
+      </c>
+      <c r="I467">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>472</v>
       </c>
@@ -17271,8 +20081,14 @@
       <c r="G468" s="3">
         <v>0.70612209999999997</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H468">
+        <v>14</v>
+      </c>
+      <c r="I468">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>473</v>
       </c>
@@ -17294,8 +20110,14 @@
       <c r="G469" s="3">
         <v>0.51643570000000005</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H469">
+        <v>12</v>
+      </c>
+      <c r="I469">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>474</v>
       </c>
@@ -17317,8 +20139,14 @@
       <c r="G470" s="3">
         <v>0.66702309999999998</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H470">
+        <v>86</v>
+      </c>
+      <c r="I470">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>475</v>
       </c>
@@ -17340,8 +20168,14 @@
       <c r="G471" s="3">
         <v>0.61133539999999997</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H471">
+        <v>26</v>
+      </c>
+      <c r="I471">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>476</v>
       </c>
@@ -17363,8 +20197,14 @@
       <c r="G472" s="3">
         <v>0.44602522</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H472">
+        <v>53</v>
+      </c>
+      <c r="I472">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>477</v>
       </c>
@@ -17386,8 +20226,14 @@
       <c r="G473" s="3">
         <v>0.93490200000000001</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H473">
+        <v>0</v>
+      </c>
+      <c r="I473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>478</v>
       </c>
@@ -17409,8 +20255,14 @@
       <c r="G474" s="3">
         <v>0.33233684000000002</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H474">
+        <v>43</v>
+      </c>
+      <c r="I474">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>479</v>
       </c>
@@ -17432,8 +20284,14 @@
       <c r="G475" s="3">
         <v>0.47575919999999999</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H475">
+        <v>148</v>
+      </c>
+      <c r="I475">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>480</v>
       </c>
@@ -17455,8 +20313,14 @@
       <c r="G476" s="3">
         <v>0.22085995999999999</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H476">
+        <v>24</v>
+      </c>
+      <c r="I476">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>481</v>
       </c>
@@ -17478,8 +20342,14 @@
       <c r="G477" s="3">
         <v>0.60091620000000001</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H477">
+        <v>58</v>
+      </c>
+      <c r="I477">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>482</v>
       </c>
@@ -17501,8 +20371,14 @@
       <c r="G478" s="3">
         <v>0.52137803999999999</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H478">
+        <v>32</v>
+      </c>
+      <c r="I478">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>483</v>
       </c>
@@ -17524,8 +20400,14 @@
       <c r="G479" s="3">
         <v>0.57363030000000004</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H479">
+        <v>38</v>
+      </c>
+      <c r="I479">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>484</v>
       </c>
@@ -17547,8 +20429,14 @@
       <c r="G480" s="3">
         <v>0.60073509999999997</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H480">
+        <v>105</v>
+      </c>
+      <c r="I480">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>485</v>
       </c>
@@ -17570,8 +20458,14 @@
       <c r="G481" s="3">
         <v>0.66774814999999998</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H481">
+        <v>133</v>
+      </c>
+      <c r="I481">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>486</v>
       </c>
@@ -17593,8 +20487,14 @@
       <c r="G482" s="3">
         <v>0.39350623000000001</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H482">
+        <v>52</v>
+      </c>
+      <c r="I482">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>487</v>
       </c>
@@ -17616,8 +20516,14 @@
       <c r="G483" s="3">
         <v>0.48591732999999998</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H483">
+        <v>100</v>
+      </c>
+      <c r="I483">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>488</v>
       </c>
@@ -17639,8 +20545,14 @@
       <c r="G484" s="3">
         <v>0.55100519999999997</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H484">
+        <v>19</v>
+      </c>
+      <c r="I484">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>489</v>
       </c>
@@ -17662,8 +20574,14 @@
       <c r="G485" s="3">
         <v>0.19774430000000001</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H485">
+        <v>26</v>
+      </c>
+      <c r="I485">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>490</v>
       </c>
@@ -17685,8 +20603,14 @@
       <c r="G486" s="3">
         <v>0.57617854999999996</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H486">
+        <v>76</v>
+      </c>
+      <c r="I486">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>491</v>
       </c>
@@ -17708,8 +20632,14 @@
       <c r="G487" s="3">
         <v>0.5743222</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H487">
+        <v>17</v>
+      </c>
+      <c r="I487">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>492</v>
       </c>
@@ -17731,8 +20661,14 @@
       <c r="G488" s="3">
         <v>0.55821290000000001</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H488">
+        <v>33</v>
+      </c>
+      <c r="I488">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>493</v>
       </c>
@@ -17754,8 +20690,14 @@
       <c r="G489" s="3">
         <v>0.38910976000000003</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H489">
+        <v>61</v>
+      </c>
+      <c r="I489">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>494</v>
       </c>
@@ -17777,8 +20719,14 @@
       <c r="G490" s="3">
         <v>0.51681065999999998</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H490">
+        <v>40</v>
+      </c>
+      <c r="I490">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>495</v>
       </c>
@@ -17800,8 +20748,14 @@
       <c r="G491" s="3">
         <v>0.36106060000000001</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H491">
+        <v>38</v>
+      </c>
+      <c r="I491">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>496</v>
       </c>
@@ -17823,8 +20777,14 @@
       <c r="G492" s="3">
         <v>0.55722939999999999</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H492">
+        <v>15</v>
+      </c>
+      <c r="I492">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>497</v>
       </c>
@@ -17846,8 +20806,14 @@
       <c r="G493" s="3">
         <v>0.6223516</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H493">
+        <v>33</v>
+      </c>
+      <c r="I493">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>498</v>
       </c>
@@ -17869,8 +20835,14 @@
       <c r="G494" s="3">
         <v>0.38167321999999998</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H494">
+        <v>30</v>
+      </c>
+      <c r="I494">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>499</v>
       </c>
@@ -17892,8 +20864,14 @@
       <c r="G495" s="3">
         <v>0.55278729999999998</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H495">
+        <v>64</v>
+      </c>
+      <c r="I495">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>500</v>
       </c>
@@ -17915,8 +20893,14 @@
       <c r="G496" s="3">
         <v>0.66403140000000005</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H496">
+        <v>50</v>
+      </c>
+      <c r="I496">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>501</v>
       </c>
@@ -17938,8 +20922,14 @@
       <c r="G497" s="3">
         <v>0.40735647000000003</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H497">
+        <v>67</v>
+      </c>
+      <c r="I497">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>502</v>
       </c>
@@ -17961,8 +20951,14 @@
       <c r="G498" s="3">
         <v>0.69506869999999998</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H498">
+        <v>87</v>
+      </c>
+      <c r="I498">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>503</v>
       </c>
@@ -17984,8 +20980,14 @@
       <c r="G499" s="3">
         <v>0.42636160000000001</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H499">
+        <v>39</v>
+      </c>
+      <c r="I499">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>504</v>
       </c>
@@ -18007,8 +21009,14 @@
       <c r="G500" s="3">
         <v>0.70761830000000003</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>505</v>
       </c>
@@ -18030,8 +21038,14 @@
       <c r="G501" s="3">
         <v>0.72216725000000004</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H501">
+        <v>25</v>
+      </c>
+      <c r="I501">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>506</v>
       </c>
@@ -18053,8 +21067,14 @@
       <c r="G502" s="3">
         <v>0.45569435000000003</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="H502">
+        <v>92</v>
+      </c>
+      <c r="I502">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>507</v>
       </c>
@@ -18076,8 +21096,14 @@
       <c r="G503" s="3">
         <v>0.67941856</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H503">
+        <v>88</v>
+      </c>
+      <c r="I503">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>508</v>
       </c>
@@ -18099,8 +21125,14 @@
       <c r="G504" s="3">
         <v>0.60485697000000005</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H504">
+        <v>103</v>
+      </c>
+      <c r="I504">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>509</v>
       </c>
@@ -18122,8 +21154,14 @@
       <c r="G505" s="3">
         <v>0.65478765999999999</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H505">
+        <v>14</v>
+      </c>
+      <c r="I505">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>510</v>
       </c>
@@ -18145,8 +21183,14 @@
       <c r="G506" s="3">
         <v>0.75421450000000001</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H506">
+        <v>10</v>
+      </c>
+      <c r="I506">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>511</v>
       </c>
@@ -18168,8 +21212,14 @@
       <c r="G507" s="3">
         <v>0.47619834999999999</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H507">
+        <v>72</v>
+      </c>
+      <c r="I507">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>512</v>
       </c>
@@ -18191,8 +21241,14 @@
       <c r="G508" s="3">
         <v>0.49390267999999998</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H508">
+        <v>79</v>
+      </c>
+      <c r="I508">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>513</v>
       </c>
@@ -18214,8 +21270,14 @@
       <c r="G509" s="3">
         <v>0.70549976999999997</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H509">
+        <v>46</v>
+      </c>
+      <c r="I509">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>514</v>
       </c>
@@ -18237,8 +21299,14 @@
       <c r="G510" s="3">
         <v>0.51164310000000002</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H510">
+        <v>33</v>
+      </c>
+      <c r="I510">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>515</v>
       </c>
@@ -18260,8 +21328,15 @@
       <c r="G511" s="3">
         <v>0.34759014999999999</v>
       </c>
+      <c r="H511">
+        <v>24</v>
+      </c>
+      <c r="I511">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>